--- a/rim/data/stock_sector.xlsx
+++ b/rim/data/stock_sector.xlsx
@@ -561,22 +561,22 @@
         <v>1.42</v>
       </c>
       <c r="P2">
-        <v>8.210000000000001</v>
+        <v>8.25</v>
       </c>
       <c r="Q2">
-        <v>50027</v>
+        <v>49842</v>
       </c>
       <c r="R2">
-        <v>53871</v>
+        <v>53755</v>
       </c>
       <c r="S2">
-        <v>56112</v>
+        <v>56039</v>
       </c>
       <c r="T2">
-        <v>58731</v>
+        <v>58709</v>
       </c>
       <c r="U2">
-        <v>0.7208796692329626</v>
+        <v>0.7218187333821089</v>
       </c>
       <c r="V2">
         <v>1</v>
